--- a/pcitc-stp/src/main/resources/static/budget/budget_stocksplit_zsy_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_stocksplit_zsy_template.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>表3 2018年直属研究院科技经费预算表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>单位/万元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,6 +29,22 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${nd}年新签费用合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${nd}年结转费用合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${nd}年费用合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3 ${nd}年直属研究院科技经费预算表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -99,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -110,12 +129,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -416,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -431,7 +461,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -446,7 +476,7 @@
     </row>
     <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -461,13 +491,13 @@
     </row>
     <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -700,43 +730,55 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
